--- a/T04_M2_D3_IDD_files/T04_M2_D3_IDD_Product_MMCC.xlsx
+++ b/T04_M2_D3_IDD_files/T04_M2_D3_IDD_Product_MMCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M2\Solved\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M2\Solved\T04_M2_D3_IDD_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D9D36-D22C-4F2E-973B-C6DDB054566A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ADDA8F-1B91-47B1-9FC0-1CE405EA1B75}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="6864" xr2:uid="{555D514B-6EE8-4111-BA1A-D8C8218A2C9C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Dimension Name</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Pack_200</t>
   </si>
   <si>
-    <t>C2000</t>
-  </si>
-  <si>
     <t>Double coated green</t>
   </si>
   <si>
@@ -170,49 +167,55 @@
     <t>High quality paint work/Low quality paint work</t>
   </si>
   <si>
-    <t>VEHICLE_Make_KEY</t>
-  </si>
-  <si>
-    <t>VEHICLE_Make_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Key</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Desc</t>
-  </si>
-  <si>
-    <t>VEHICLE_Class_Key</t>
-  </si>
-  <si>
-    <t>VEHICLE_Class_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Class_Desc</t>
-  </si>
-  <si>
-    <t>VEHICLE_Color_Key</t>
-  </si>
-  <si>
-    <t>VEHICLE_Color_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Color_Abbreviation</t>
-  </si>
-  <si>
-    <t>VEHICLE_Retail_Price</t>
-  </si>
-  <si>
-    <t>VEHICLE_Wholesale_Price</t>
-  </si>
-  <si>
-    <t>VEHICLE_Serial_Number</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Year</t>
+    <t>C200</t>
+  </si>
+  <si>
+    <t>Product_Make_KEY</t>
+  </si>
+  <si>
+    <t>Product_Make_Name</t>
+  </si>
+  <si>
+    <t>Product_Model_Key</t>
+  </si>
+  <si>
+    <t>Product_Model_Name</t>
+  </si>
+  <si>
+    <t>Product_Model_Desc</t>
+  </si>
+  <si>
+    <t>Product_Class_Key</t>
+  </si>
+  <si>
+    <t>Product_Class_Name</t>
+  </si>
+  <si>
+    <t>Product_Class_Desc</t>
+  </si>
+  <si>
+    <t>Product_KEY</t>
+  </si>
+  <si>
+    <t>Product_Color_Key</t>
+  </si>
+  <si>
+    <t>Product_Color_Name</t>
+  </si>
+  <si>
+    <t>Product_Color_Abbreviation</t>
+  </si>
+  <si>
+    <t>Product_Retail_Price</t>
+  </si>
+  <si>
+    <t>Product_Wholesale_Price</t>
+  </si>
+  <si>
+    <t>Product_Serial_Number</t>
+  </si>
+  <si>
+    <t>Product_Model_Year</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,44 +434,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,39 +480,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,9 +511,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -573,6 +555,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,6 +611,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -898,23 +924,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5904E4-BCE3-4120-8BBF-4544FA76B06E}">
-  <dimension ref="A2:H52"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="35"/>
+    <col min="1" max="1" width="2.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -950,28 +976,28 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -979,105 +1005,105 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="52">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="37" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>2</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="38" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>10</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="39" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>10</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1085,374 +1111,392 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="42" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="18">
         <v>6</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="43" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="19">
         <v>300</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19">
+        <v>300</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="13">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="13">
+        <v>10</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="16">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13">
+        <v>30</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="20">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="13">
+        <v>30</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="20">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19">
+        <v>300</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="22">
         <v>10</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="16">
-        <v>10</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G21" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="16">
-        <v>30</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="28">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="16">
-        <v>30</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="28">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="27">
-        <v>300</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="45"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="30">
-        <v>10</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="30">
+      <c r="H21" s="22">
         <v>2014</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-    </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D27" s="46"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D28" s="46"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D29" s="46"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D30" s="46"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D31" s="46"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D32" s="46"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D33" s="46"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D34" s="46"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D35" s="46"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D36" s="46"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D37" s="46"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D38" s="46"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D39" s="46"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D40" s="46"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D41" s="46"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D42" s="46"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D43" s="46"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D44" s="46"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D45" s="46"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D46" s="46"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D47" s="46"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D48" s="46"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D49" s="46"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D50" s="46"/>
+      <c r="D50" s="37"/>
     </row>
     <row r="51" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D51" s="46"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D52" s="46"/>
+      <c r="D52" s="37"/>
+    </row>
+    <row r="53" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D53" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B13:B21"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="C13:C21"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:F26">
+  <conditionalFormatting sqref="E5:F27">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF($E5&lt;&gt;"P",1,0)</formula>
     </cfRule>
